--- a/applications/south_africa/WC_validation.xlsx
+++ b/applications/south_africa/WC_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>20299</v>
+        <v>27825</v>
       </c>
       <c r="B3">
-        <v>22493</v>
+        <v>32272</v>
       </c>
       <c r="C3">
-        <v>24142</v>
+        <v>36266</v>
       </c>
       <c r="D3">
-        <v>25666</v>
+        <v>42718</v>
       </c>
       <c r="I3">
-        <v>218</v>
+        <v>490</v>
       </c>
       <c r="J3">
-        <v>281</v>
+        <v>803</v>
       </c>
       <c r="K3">
-        <v>317</v>
+        <v>1108</v>
       </c>
       <c r="L3">
-        <v>354</v>
+        <v>1737</v>
       </c>
     </row>
   </sheetData>

--- a/applications/south_africa/WC_validation.xlsx
+++ b/applications/south_africa/WC_validation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\south_africa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98B7CB-E026-4FC1-A11C-8658C3F65E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-2700" yWindow="4455" windowWidth="4275" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,28 +87,36 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P3" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="16">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -151,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,14 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -463,30 +515,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>27825</v>
+        <v>17013</v>
       </c>
       <c r="B3">
-        <v>32272</v>
+        <v>24645</v>
       </c>
       <c r="C3">
-        <v>36266</v>
+        <v>32534</v>
       </c>
       <c r="D3">
-        <v>42718</v>
+        <v>62141</v>
+      </c>
+      <c r="E3">
+        <v>15396</v>
+      </c>
+      <c r="F3">
+        <v>22567</v>
+      </c>
+      <c r="G3">
+        <v>33568</v>
+      </c>
+      <c r="H3">
+        <v>79344</v>
       </c>
       <c r="I3">
-        <v>490</v>
+        <v>214</v>
       </c>
       <c r="J3">
-        <v>803</v>
+        <v>353</v>
       </c>
       <c r="K3">
-        <v>1108</v>
+        <v>576</v>
       </c>
       <c r="L3">
-        <v>1737</v>
+        <v>3501</v>
+      </c>
+      <c r="M3">
+        <v>330</v>
+      </c>
+      <c r="N3">
+        <v>525</v>
+      </c>
+      <c r="O3">
+        <v>829</v>
+      </c>
+      <c r="P3">
+        <v>2385</v>
       </c>
     </row>
   </sheetData>
